--- a/과거시험 시제/기술 정리.xlsx
+++ b/과거시험 시제/기술 정리.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssss4\Documents\GitHub\PastExamFile\PastExamFile\과거시험 시제\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56042362-8F75-4A62-AF6B-8F08D4A47780}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEE34EC-BD67-485B-9222-BAB220277001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" xr2:uid="{766B6A29-FCE0-44C8-ADED-E1E179BB48EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{766B6A29-FCE0-44C8-ADED-E1E179BB48EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>창</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,147 +63,169 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>삼안총</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>조총</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>당파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌍자총통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속 사격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화 연속 사격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다발 사격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화 다발 사격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화살비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광역 사격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우의 활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신기전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수화자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은장도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>염초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불화살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃털 장식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리띠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두정갑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창포검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두석린갑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>띠돈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광다회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>일총통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>비격진천뢰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당파</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>표창</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화창</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왜검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등패</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사인검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쾌창</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>편곤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쌍자총통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연속 사격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강화 연속 사격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다발 사격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강화 다발 사격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화살비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광역 사격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여우의 활</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신기전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>죽창</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수화자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>은장도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>염초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>편전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불화살</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>깃털 장식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>머리띠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두정갑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>창포검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두석린갑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>띠돈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광다회</t>
+  </si>
+  <si>
+    <t>용의 화살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천리경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망나니칼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수노궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화 수노궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈고리 화살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대완구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -330,7 +352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -358,34 +380,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -705,877 +706,830 @@
   <dimension ref="A2:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.69921875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" customWidth="1"/>
-    <col min="3" max="3" width="5.69921875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.69921875" customWidth="1"/>
-    <col min="5" max="5" width="5.69921875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" customWidth="1"/>
-    <col min="7" max="7" width="5.69921875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="12.69921875" customWidth="1"/>
-    <col min="9" max="9" width="5.69921875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="12.69921875" customWidth="1"/>
-    <col min="11" max="11" width="5.69921875" style="7" customWidth="1"/>
-    <col min="12" max="12" width="12.69921875" customWidth="1"/>
-    <col min="13" max="13" width="5.69921875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="12.69921875" customWidth="1"/>
-    <col min="15" max="15" width="5.69921875" style="7" customWidth="1"/>
-    <col min="16" max="16" width="12.69921875" customWidth="1"/>
-    <col min="17" max="17" width="5.69921875" style="7" customWidth="1"/>
-    <col min="18" max="18" width="12.69921875" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="5.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="5.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="5.75" style="7" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="5.75" style="7" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="5.75" style="7" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="5.75" style="7" customWidth="1"/>
+    <col min="14" max="14" width="12.75" customWidth="1"/>
+    <col min="15" max="15" width="5.75" style="7" customWidth="1"/>
+    <col min="16" max="16" width="12.75" customWidth="1"/>
+    <col min="17" max="17" width="5.75" style="7" customWidth="1"/>
+    <col min="18" max="18" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>101</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>23</v>
+      <c r="B2" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C2" s="8">
         <v>111</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>24</v>
+      <c r="D2" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E2" s="8">
         <v>121</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="4">
         <v>131</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="8">
         <v>141</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>13</v>
+      <c r="J2" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="K2" s="8">
         <v>151</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="L2" s="10"/>
       <c r="M2" s="4">
         <v>161</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="O2" s="8">
         <v>171</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="Q2" s="8">
         <v>181</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>102</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7">
         <v>112</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="7">
         <v>122</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="5">
         <v>132</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="7">
         <v>142</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="9">
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="7">
         <v>152</v>
       </c>
-      <c r="L3" s="13"/>
       <c r="M3" s="5">
         <v>162</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="7">
         <v>172</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="7">
         <v>182</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>103</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="9">
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="7">
         <v>113</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="7">
         <v>123</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="5">
         <v>133</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="7">
         <v>143</v>
       </c>
-      <c r="J4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="9">
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7">
         <v>153</v>
       </c>
-      <c r="L4" s="13"/>
       <c r="M4" s="5">
         <v>163</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="7">
         <v>173</v>
       </c>
-      <c r="P4" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="9">
+      <c r="P4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="7">
         <v>183</v>
       </c>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>104</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>114</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="7">
         <v>124</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="5">
         <v>134</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <v>144</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="9">
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="7">
         <v>154</v>
       </c>
-      <c r="L5" s="13"/>
       <c r="M5" s="5">
         <v>164</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="9">
+      <c r="O5" s="7">
         <v>174</v>
       </c>
-      <c r="P5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q5" s="9">
+      <c r="P5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="7">
         <v>184</v>
       </c>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>105</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>115</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="9">
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="7">
         <v>125</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="5">
         <v>135</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="9">
+      <c r="I6" s="7">
         <v>145</v>
       </c>
-      <c r="J6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="9">
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="7">
         <v>155</v>
       </c>
-      <c r="L6" s="13"/>
       <c r="M6" s="5">
         <v>165</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="9">
+      <c r="O6" s="7">
         <v>175</v>
       </c>
-      <c r="P6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="9">
+      <c r="P6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="7">
         <v>185</v>
       </c>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>106</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>116</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="9">
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="7">
         <v>126</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G7" s="5">
         <v>136</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="9">
+      <c r="I7" s="7">
         <v>146</v>
       </c>
-      <c r="J7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="9">
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="7">
         <v>156</v>
       </c>
-      <c r="L7" s="13"/>
+      <c r="L7" t="s">
+        <v>49</v>
+      </c>
       <c r="M7" s="5">
         <v>166</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="9">
+      <c r="O7" s="7">
         <v>176</v>
       </c>
-      <c r="P7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q7" s="9">
+      <c r="P7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="7">
         <v>186</v>
       </c>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="R7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>107</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>117</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>127</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="G8" s="5">
         <v>137</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="9">
+      <c r="I8" s="7">
         <v>147</v>
       </c>
-      <c r="J8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="9">
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="7">
         <v>157</v>
       </c>
-      <c r="L8" s="13"/>
       <c r="M8" s="5">
         <v>167</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="9">
+      <c r="O8" s="7">
         <v>177</v>
       </c>
-      <c r="P8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="7">
         <v>187</v>
       </c>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="R8" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>108</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>118</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <v>128</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="5">
         <v>138</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="9">
+      <c r="I9" s="7">
         <v>148</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="9">
+      <c r="K9" s="7">
         <v>158</v>
       </c>
-      <c r="L9" s="13"/>
       <c r="M9" s="5">
         <v>168</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="9">
+      <c r="O9" s="7">
         <v>178</v>
       </c>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="9">
+      <c r="Q9" s="7">
         <v>188</v>
       </c>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>109</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="9">
+      <c r="C10" s="7">
         <v>119</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <v>129</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="5">
         <v>139</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="9">
+      <c r="I10" s="7">
         <v>149</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="9">
+      <c r="K10" s="7">
         <v>159</v>
       </c>
-      <c r="L10" s="13"/>
       <c r="M10" s="5">
         <v>169</v>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="9">
+      <c r="O10" s="7">
         <v>179</v>
       </c>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="9">
+      <c r="Q10" s="7">
         <v>189</v>
       </c>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>110</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="10">
+      <c r="B11" s="11"/>
+      <c r="C11" s="9">
         <v>120</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="10">
+      <c r="D11" s="11"/>
+      <c r="E11" s="9">
         <v>130</v>
       </c>
-      <c r="F11" s="16"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="6">
         <v>140</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="10">
+      <c r="H11" s="11"/>
+      <c r="I11" s="9">
         <v>150</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="10">
+      <c r="J11" s="11"/>
+      <c r="K11" s="9">
         <v>160</v>
       </c>
-      <c r="L11" s="15"/>
+      <c r="L11" s="11"/>
       <c r="M11" s="6">
         <v>170</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="10">
+      <c r="N11" s="11"/>
+      <c r="O11" s="9">
         <v>180</v>
       </c>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="10">
+      <c r="P11" s="11"/>
+      <c r="Q11" s="9">
         <v>190</v>
       </c>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>1</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>29</v>
+      <c r="B12" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C12" s="8">
         <v>11</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="4">
         <v>21</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>33</v>
+      <c r="F12" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="G12" s="8">
         <v>31</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="4">
         <v>41</v>
       </c>
-      <c r="J12" s="11" t="s">
-        <v>31</v>
+      <c r="J12" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="K12" s="8">
         <v>51</v>
       </c>
-      <c r="L12" s="12"/>
+      <c r="L12" s="1"/>
       <c r="M12" s="8">
         <v>61</v>
       </c>
-      <c r="N12" s="11" t="s">
-        <v>38</v>
+      <c r="N12" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="O12" s="8">
         <v>71</v>
       </c>
-      <c r="P12" s="11"/>
+      <c r="P12" s="10"/>
       <c r="Q12" s="8">
         <v>81</v>
       </c>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>2</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="7">
         <v>12</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="5">
         <v>22</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="7">
         <v>32</v>
       </c>
-      <c r="G13" s="9">
-        <v>32</v>
-      </c>
-      <c r="H13" s="14"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="5">
         <v>42</v>
       </c>
-      <c r="J13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" s="9">
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="7">
         <v>52</v>
       </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="9">
+      <c r="L13" s="2"/>
+      <c r="M13" s="7">
         <v>62</v>
       </c>
-      <c r="N13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O13" s="9">
+      <c r="N13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="7">
         <v>72</v>
       </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="9">
+      <c r="Q13" s="7">
         <v>82</v>
       </c>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>3</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="9">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="7">
         <v>13</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="5">
         <v>23</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="7">
         <v>33</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="5">
         <v>43</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="9">
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="7">
         <v>53</v>
       </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="9">
+      <c r="L14" s="2"/>
+      <c r="M14" s="7">
         <v>63</v>
       </c>
-      <c r="N14" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="O14" s="9">
+      <c r="N14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="7">
         <v>73</v>
       </c>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="9">
+      <c r="Q14" s="7">
         <v>83</v>
       </c>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>4</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="9">
+      <c r="C15" s="7">
         <v>14</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
         <v>24</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="9">
+      <c r="G15" s="7">
         <v>34</v>
       </c>
-      <c r="H15" s="14"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="5">
         <v>44</v>
       </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="9">
+      <c r="K15" s="7">
         <v>54</v>
       </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="9">
+      <c r="L15" s="2"/>
+      <c r="M15" s="7">
         <v>64</v>
       </c>
-      <c r="N15" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="O15" s="9">
+      <c r="N15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" s="7">
         <v>74</v>
       </c>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="9">
+      <c r="Q15" s="7">
         <v>84</v>
       </c>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>5</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="9">
+      <c r="C16" s="7">
         <v>15</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
         <v>25</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="9">
+      <c r="G16" s="7">
         <v>35</v>
       </c>
-      <c r="H16" s="14"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="5">
         <v>45</v>
       </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="9">
+      <c r="K16" s="7">
         <v>55</v>
       </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="9">
+      <c r="L16" s="2"/>
+      <c r="M16" s="7">
         <v>65</v>
       </c>
-      <c r="N16" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="O16" s="9">
+      <c r="N16" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="7">
         <v>75</v>
       </c>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="9">
+      <c r="Q16" s="7">
         <v>85</v>
       </c>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>6</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="9">
+      <c r="C17" s="7">
         <v>16</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="5">
         <v>26</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="9">
+      <c r="G17" s="7">
         <v>36</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="5">
         <v>46</v>
       </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="9">
+      <c r="K17" s="7">
         <v>56</v>
       </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="9">
+      <c r="L17" s="2"/>
+      <c r="M17" s="7">
         <v>66</v>
       </c>
-      <c r="N17" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="O17" s="9">
+      <c r="N17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="7">
         <v>76</v>
       </c>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="9">
+      <c r="Q17" s="7">
         <v>86</v>
       </c>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>7</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <v>17</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="5">
         <v>27</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="9">
+      <c r="G18" s="7">
         <v>37</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="5">
         <v>47</v>
       </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="9">
+      <c r="K18" s="7">
         <v>57</v>
       </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="9">
+      <c r="L18" s="2"/>
+      <c r="M18" s="7">
         <v>67</v>
       </c>
-      <c r="N18" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="O18" s="9">
+      <c r="N18" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="7">
         <v>77</v>
       </c>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="9">
+      <c r="Q18" s="7">
         <v>87</v>
       </c>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>8</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="9">
+      <c r="C19" s="7">
         <v>18</v>
       </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="5">
         <v>28</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="9">
+      <c r="G19" s="7">
         <v>38</v>
       </c>
-      <c r="H19" s="14"/>
+      <c r="H19" s="2"/>
       <c r="I19" s="5">
         <v>48</v>
       </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="9">
+      <c r="K19" s="7">
         <v>58</v>
       </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="9">
+      <c r="L19" s="2"/>
+      <c r="M19" s="7">
         <v>68</v>
       </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="9">
+      <c r="N19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19" s="7">
         <v>78</v>
       </c>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="9">
+      <c r="Q19" s="7">
         <v>88</v>
       </c>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>9</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="9">
+      <c r="C20" s="7">
         <v>19</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="2"/>
       <c r="E20" s="5">
         <v>29</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="9">
+      <c r="G20" s="7">
         <v>39</v>
       </c>
-      <c r="H20" s="14"/>
+      <c r="H20" s="2"/>
       <c r="I20" s="5">
         <v>49</v>
       </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="9">
+      <c r="K20" s="7">
         <v>59</v>
       </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="9">
+      <c r="L20" s="2"/>
+      <c r="M20" s="7">
         <v>69</v>
       </c>
-      <c r="N20" s="13"/>
-      <c r="O20" s="9">
+      <c r="N20" t="s">
+        <v>44</v>
+      </c>
+      <c r="O20" s="7">
         <v>79</v>
       </c>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="9">
+      <c r="Q20" s="7">
         <v>89</v>
       </c>
       <c r="R20" s="2"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>10</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="10">
+      <c r="B21" s="11"/>
+      <c r="C21" s="9">
         <v>20</v>
       </c>
-      <c r="D21" s="16"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="6">
         <v>30</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="10">
+      <c r="F21" s="11"/>
+      <c r="G21" s="9">
         <v>40</v>
       </c>
-      <c r="H21" s="16"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="6">
         <v>50</v>
       </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="10">
+      <c r="J21" s="11"/>
+      <c r="K21" s="9">
         <v>60</v>
       </c>
-      <c r="L21" s="16"/>
-      <c r="M21" s="10">
+      <c r="L21" s="3"/>
+      <c r="M21" s="9">
         <v>70</v>
       </c>
-      <c r="N21" s="15"/>
-      <c r="O21" s="10">
+      <c r="N21" s="11"/>
+      <c r="O21" s="9">
         <v>80</v>
       </c>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="10">
+      <c r="P21" s="11"/>
+      <c r="Q21" s="9">
         <v>90</v>
       </c>
       <c r="R21" s="3"/>

--- a/과거시험 시제/기술 정리.xlsx
+++ b/과거시험 시제/기술 정리.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssss4\Documents\GitHub\PastExamFile\PastExamFile\과거시험 시제\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEE34EC-BD67-485B-9222-BAB220277001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DBDEA8-1DA8-423A-8A61-3394209ECB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{766B6A29-FCE0-44C8-ADED-E1E179BB48EA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>창</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,6 +226,10 @@
   </si>
   <si>
     <t>대완구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장방패</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -706,7 +710,7 @@
   <dimension ref="A2:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1031,6 +1035,9 @@
       <c r="K8" s="7">
         <v>157</v>
       </c>
+      <c r="L8" t="s">
+        <v>51</v>
+      </c>
       <c r="M8" s="5">
         <v>167</v>
       </c>

--- a/과거시험 시제/기술 정리.xlsx
+++ b/과거시험 시제/기술 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssss4\Documents\GitHub\PastExamFile\PastExamFile\과거시험 시제\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DBDEA8-1DA8-423A-8A61-3394209ECB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7AE520-154F-46F2-A74F-249ADEB76BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{766B6A29-FCE0-44C8-ADED-E1E179BB48EA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>창</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,18 @@
   </si>
   <si>
     <t>장방패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유엽전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대우전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>착전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -710,7 +722,7 @@
   <dimension ref="A2:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1291,6 +1303,9 @@
       <c r="A15" s="5">
         <v>4</v>
       </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
       <c r="C15" s="7">
         <v>14</v>
       </c>
@@ -1327,6 +1342,9 @@
       <c r="A16" s="5">
         <v>5</v>
       </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
       <c r="C16" s="7">
         <v>15</v>
       </c>
@@ -1362,6 +1380,9 @@
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
       </c>
       <c r="C17" s="7">
         <v>16</v>

--- a/과거시험 시제/기술 정리.xlsx
+++ b/과거시험 시제/기술 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssss4\Documents\GitHub\PastExamFile\PastExamFile\과거시험 시제\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7AE520-154F-46F2-A74F-249ADEB76BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77748DAA-8886-43F7-BA36-69E714864F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{766B6A29-FCE0-44C8-ADED-E1E179BB48EA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>창</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,6 +242,10 @@
   </si>
   <si>
     <t>착전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교자궁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,7 +726,7 @@
   <dimension ref="A2:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1420,6 +1424,9 @@
       <c r="A18" s="5">
         <v>7</v>
       </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
       <c r="C18" s="7">
         <v>17</v>
       </c>

--- a/과거시험 시제/기술 정리.xlsx
+++ b/과거시험 시제/기술 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssss4\Documents\GitHub\PastExamFile\PastExamFile\과거시험 시제\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77748DAA-8886-43F7-BA36-69E714864F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B807B350-7E91-4A71-BDA5-3CECA33D2741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{766B6A29-FCE0-44C8-ADED-E1E179BB48EA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>창</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,6 +246,18 @@
   </si>
   <si>
     <t>교자궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손도끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악령의 강타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오니의 검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -726,7 +738,7 @@
   <dimension ref="A2:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1077,7 +1089,9 @@
       <c r="E9" s="7">
         <v>128</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G9" s="5">
         <v>138</v>
       </c>
@@ -1087,6 +1101,9 @@
       <c r="K9" s="7">
         <v>158</v>
       </c>
+      <c r="L9" t="s">
+        <v>57</v>
+      </c>
       <c r="M9" s="5">
         <v>168</v>
       </c>
@@ -1096,7 +1113,9 @@
       <c r="Q9" s="7">
         <v>188</v>
       </c>
-      <c r="R9" s="2"/>
+      <c r="R9" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5">

--- a/과거시험 시제/기술 정리.xlsx
+++ b/과거시험 시제/기술 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssss4\Documents\GitHub\PastExamFile\PastExamFile\과거시험 시제\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B807B350-7E91-4A71-BDA5-3CECA33D2741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54B5AD0-9013-4172-AAC8-CC169329BAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{766B6A29-FCE0-44C8-ADED-E1E179BB48EA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>창</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +258,10 @@
   </si>
   <si>
     <t>오니의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>논개의 반지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,7 +742,7 @@
   <dimension ref="A2:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1336,6 +1340,9 @@
       <c r="E15" s="5">
         <v>24</v>
       </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
       <c r="G15" s="7">
         <v>34</v>
       </c>

--- a/과거시험 시제/기술 정리.xlsx
+++ b/과거시험 시제/기술 정리.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssss4\Documents\GitHub\PastExamFile\PastExamFile\과거시험 시제\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54B5AD0-9013-4172-AAC8-CC169329BAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA053BBB-A2F6-43E5-9945-0D707C847B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{766B6A29-FCE0-44C8-ADED-E1E179BB48EA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>창</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,6 +262,18 @@
   </si>
   <si>
     <t>논개의 반지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염 돌진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사인검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우불</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -742,7 +754,7 @@
   <dimension ref="A2:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1131,7 +1143,9 @@
       <c r="E10" s="7">
         <v>129</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="G10" s="5">
         <v>139</v>
       </c>
@@ -1141,6 +1155,9 @@
       <c r="K10" s="7">
         <v>159</v>
       </c>
+      <c r="L10" t="s">
+        <v>61</v>
+      </c>
       <c r="M10" s="5">
         <v>169</v>
       </c>
@@ -1150,7 +1167,9 @@
       <c r="Q10" s="7">
         <v>189</v>
       </c>
-      <c r="R10" s="2"/>
+      <c r="R10" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
